--- a/Lista zakupów.xlsx
+++ b/Lista zakupów.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Autonomous-Donkey\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E19538-7D94-4392-9E8E-6B4BE06AA0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Nazwa</t>
   </si>
@@ -24,16 +44,22 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Raspberry Pi 4 model B</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> WiFi DualBand Bluetooth 4GB RAM 1,5GHz</t>
     </r>
@@ -44,16 +70,22 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Silnik z przekładnią 37Dx68L</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> 30:1 12V 330RPM + enkoder CPR 64 - Pololu 4752</t>
     </r>
@@ -64,31 +96,43 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Cytron MDD10A</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>dwukanałowy sterownik silników</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> DC 30V/10A</t>
     </r>
@@ -99,31 +143,43 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Przetwornica</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> step-down</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> LM2596</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> 3,2V-35V 3A</t>
     </r>
@@ -134,38 +190,53 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve">Pakiet </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Li-Pol GPX Extreme</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>2700mAh</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> 25C 3S 11,1V</t>
     </r>
@@ -176,31 +247,43 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Sharp GP2Y0A21YK0F</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> - analogowy </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>czujnik odległości</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> 10-80cm</t>
     </r>
@@ -211,16 +294,22 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Obrotowe kółko</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> do podwozia robota</t>
     </r>
@@ -231,16 +320,22 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve">Para </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>konektorów XT60</t>
     </r>
@@ -251,23 +346,32 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Zestaw przewodów połączeniowych -</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> męsko-męskie</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> 20cm 40szt.</t>
     </r>
@@ -278,23 +382,32 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Zestaw przewodów połączeniowych -</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> żeńsko-żeńskie</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> 20cm - 40szt.</t>
     </r>
@@ -305,23 +418,32 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve">Wyłącznik </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>On-Off IRS-101-8C/D</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> - 12VDC/20A z podświetleniem - czerwony</t>
     </r>
@@ -329,29 +451,43 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>https://botland.com.pl/przelaczniki-kolyskowe/6686-wylacznik-on-off-irs-101-8cd-12vdc20a-z-podswietleniem-czerwony.html</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>l</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Płytka stykowa</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> - 400 otworów</t>
     </r>
@@ -364,68 +500,104 @@
   </si>
   <si>
     <t>(mniej więcej)</t>
+  </si>
+  <si>
+    <t>Sharp GP2Y0A21YK0F - analogowy czujnik odległości 10-80cm</t>
+  </si>
+  <si>
+    <t>Przetwornik A/C MCP3008 10-bitowy 8-kanałowy SPI - DIP</t>
+  </si>
+  <si>
+    <t>Karta pamięci Goodram M1AA microSD 32GB 100MB/s UHS-I klasa 10 z adapterem</t>
+  </si>
+  <si>
+    <t>Przewód microHDMI - HDMI T7689AX - oryginalny dla Raspberry Pi 4 - 1m - biały</t>
+  </si>
+  <si>
+    <t>https://botland.com.pl/przetworniki/2358-przetwornik-a-c-mcp3008-10-bitowy-8-kanalowy-spi-dip.html</t>
+  </si>
+  <si>
+    <t>https://botland.com.pl/karty-pamieci-microsd-sd/2361-karta-pamieci-goodram-m1aa-microsd-32gb-100mb-s-uhs-i-klasa-10-z-adapterem-5908267930144.html</t>
+  </si>
+  <si>
+    <t>https://botland.com.pl/raspberry-pi-4/14662-przewod-microhdmi-hdmi-t7689ax-oryginalny-dla-raspberry-pi-4-1m-bialy.html</t>
+  </si>
+  <si>
+    <t>Zakupy V2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0&quot;zł&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -434,57 +606,78 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -674,25 +867,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="89.43"/>
-    <col customWidth="1" min="2" max="2" width="136.71"/>
-    <col customWidth="1" min="3" max="3" width="15.57"/>
+    <col min="1" max="1" width="89.42578125" customWidth="1"/>
+    <col min="2" max="2" width="136.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -711,22 +909,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -734,21 +932,21 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -756,10 +954,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -767,32 +965,32 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -800,11 +998,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -812,21 +1010,21 @@
         <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -834,38 +1032,103 @@
         <v>26</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="8">
-        <v>920.0</v>
+      <c r="D14" s="5">
+        <v>920</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="9"/>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="7">
+        <v>125.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{EC1D09D1-AE12-41E8-9E86-66EB76EC2020}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{845B669C-C464-404D-ABA7-8BA0D79F7C0F}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{1600CE97-70D7-429B-B7AE-848DCAF8CD26}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{2C6AAFA8-0775-448E-83AC-C684580CB6FC}"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>